--- a/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social afectivo - escala</t>
+          <t>Apoyo social afectivo - escala (tasa de respuesta: 98,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Estudios-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>17,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>17,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,07</t>
+          <t>17,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,77; 17,65</t>
+          <t>16,87; 17,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,7; 16,72</t>
+          <t>15,73; 16,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,65; 17,29</t>
+          <t>16,67; 17,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,0; 16,63</t>
+          <t>16,01; 16,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,31</t>
+          <t>16,89; 17,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,54</t>
+          <t>16,04; 16,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,37 +742,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,13</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18,0</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18,1</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17,16</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17,22</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18,14</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>17,14</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>18,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,1</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,22</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,14</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>17,12</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 17,34</t>
+          <t>16,92; 17,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 18,92</t>
+          <t>17,52; 18,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,28</t>
+          <t>16,95; 17,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,72</t>
+          <t>16,4; 17,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,25</t>
+          <t>17,0; 17,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 18,17</t>
+          <t>17,07; 18,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,5</t>
+          <t>17,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>17,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 17,77</t>
+          <t>17,44; 17,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,88; 18,4</t>
+          <t>17,9; 18,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,6</t>
+          <t>17,07; 17,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 18,45</t>
+          <t>18,02; 18,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 17,6</t>
+          <t>17,34; 17,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 18,37</t>
+          <t>18,03; 18,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,16</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,19</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,38</t>
+          <t>17,14; 17,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 18,55</t>
+          <t>17,51; 18,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,29</t>
+          <t>17,06; 17,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,6</t>
+          <t>16,59; 17,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,29</t>
+          <t>17,15; 17,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,97</t>
+          <t>17,21; 17,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_AFEC_CONT-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>16,26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17,16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>17,35</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>16,23</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17,35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17,04</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>17,16</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17,04</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,33</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,35</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,16</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>16,29</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>15,76; 16,74</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 17,5</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>16,87; 17,81</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>15,73; 16,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 17,5</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>15,9; 16,5</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 17,59</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>16,67; 17,36</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>16,01; 16,61</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>17,06; 17,59</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>15,99; 16,49</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,05; 17,48</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>16,89; 17,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>16,04; 16,54</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>17,05; 17,48</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,48</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18,1</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17,13</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>18,1</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>17,38</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18,14</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>17,16</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,22</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,14</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>17,43</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18,12</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,14</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,61</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>18,12</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>17,29; 17,64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 18,24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>16,92; 17,32</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>17,52; 18,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>17,95; 18,24</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>17,21; 17,55</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 18,28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>16,95; 17,36</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>16,4; 17,73</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>17,98; 18,28</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>17,31; 17,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18,01; 18,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>17,0; 17,28</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>17,07; 18,14</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>18,01; 18,21</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>18,1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18,07</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>17,73</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>18,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>18,07</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>18,22</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18,4</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>17,35</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>18,25</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,4</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>18,16</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18,24</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>17,52</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,21</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,24</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>17,82; 18,34</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 18,27</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>17,44; 17,98</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>17,9; 18,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>17,86; 18,27</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>18,01; 18,41</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18,19; 18,57</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>17,07; 17,58</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>18,02; 18,44</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>18,19; 18,57</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>17,98; 18,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18,1; 18,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>17,34; 17,7</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>18,03; 18,34</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>18,1; 18,37</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>17,48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,95</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>17,31</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>17,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>17,95</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17,35</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18,07</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>17,2</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,27</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,07</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>17,41</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18,01</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>17,25</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,55</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>18,01</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>17,34; 17,64</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17,83; 18,07</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>17,14; 17,47</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>17,51; 18,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>17,83; 18,07</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>17,22; 17,47</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17,96; 18,17</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>17,06; 17,35</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>16,59; 17,57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,96; 18,17</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>17,31; 17,51</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,94; 18,09</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>17,15; 17,36</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>17,21; 17,91</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,94; 18,09</t>
         </is>
       </c>
     </row>
